--- a/Macros/Archivos Macro/Archivo 4.xlsx
+++ b/Macros/Archivos Macro/Archivo 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Documentos/Macros en Excel/Archivos Macro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/Macros/Archivos Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F205FAE2-7352-46CF-AACB-E06A1D58A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B06A41-FDCB-4122-8C0E-FEE06715B326}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F205FAE2-7352-46CF-AACB-E06A1D58A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9AEF755-98D6-4571-96A0-C73723922ED3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D075076-E435-4F11-9DDE-820B8DE99C9D}"/>
   </bookViews>
@@ -639,9 +639,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -693,7 +693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -719,7 +719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -797,7 +797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -823,7 +823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -849,7 +849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -875,7 +875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -927,7 +927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -953,7 +953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -979,7 +979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1069,9 +1069,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
